--- a/data/trans_camb/P1801_2016_2023-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1801_2016_2023-Clase-trans_camb.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>4.690432643742747</v>
+        <v>4.690432643742759</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>4.403183787931542</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.813351266139567</v>
+        <v>-1.882223541802608</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.168321996239342</v>
+        <v>-2.343449965749399</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5336111472014776</v>
+        <v>-0.2529939094683104</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.80036178338081</v>
+        <v>11.16526413763338</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.89614484120893</v>
+        <v>11.09481390520556</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.281944952624755</v>
+        <v>8.917994521940042</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.09549805683708404</v>
+        <v>0.09549805683708426</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.07550118302077158</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05130803485409473</v>
+        <v>-0.03603601410073921</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04650580860884281</v>
+        <v>-0.03788154071840593</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.008894301978147822</v>
+        <v>-0.004592328940883621</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2370036833718396</v>
+        <v>0.2490716434036858</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2023180716844633</v>
+        <v>0.2107888363700808</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1842942947251063</v>
+        <v>0.1764537196037471</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.833325689118332</v>
+        <v>-1.673794546706183</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.300790704225735</v>
+        <v>-9.394549271107268</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.933755321342424</v>
+        <v>-2.775137329190746</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.46402300816485</v>
+        <v>12.01889224124874</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.139633848587247</v>
+        <v>4.233127106322048</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.909953266797292</v>
+        <v>6.809966137037134</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0306466931340168</v>
+        <v>-0.03136155216239019</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1463219348136791</v>
+        <v>-0.1448064274400364</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05248232733967365</v>
+        <v>-0.0493887288256002</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2702089697337027</v>
+        <v>0.2637801578037112</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.07846005215916155</v>
+        <v>0.07931326966221165</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1354728645355146</v>
+        <v>0.1332755157518394</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-1.519633182436608</v>
+        <v>-1.519633182436619</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>-5.673655546995215</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.454241783414904</v>
+        <v>-7.963640270644117</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.38329178955006</v>
+        <v>-14.12575712153876</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.097765895854197</v>
+        <v>-8.308877931587052</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.587233336258368</v>
+        <v>4.754494402736926</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.293367835136549</v>
+        <v>4.158619855273652</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.06387054781065</v>
+        <v>2.56371320715872</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.02847839461414894</v>
+        <v>-0.02847839461414915</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>-0.08940033784688071</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1502938570646152</v>
+        <v>-0.141471191475194</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2179829997894105</v>
+        <v>-0.2046930577267408</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1250750071274094</v>
+        <v>-0.1404800620215813</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.09272519092480938</v>
+        <v>0.09662825337067854</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.07569093099432676</v>
+        <v>0.07342140429039709</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.05717924910349615</v>
+        <v>0.04767499649286649</v>
       </c>
     </row>
     <row r="22">
@@ -885,7 +885,7 @@
         <v>1.062536589032886</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>4.075023558872548</v>
+        <v>4.075023558872559</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>2.454478041576968</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.167060025656585</v>
+        <v>-3.025822769989555</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.7089439215496549</v>
+        <v>-0.2779210086714356</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9212493695525207</v>
+        <v>-0.9528147988372409</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.298695745766927</v>
+        <v>5.525816737163821</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.805394611395506</v>
+        <v>8.867030527893952</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.611217943187747</v>
+        <v>5.4006844578702</v>
       </c>
     </row>
     <row r="25">
@@ -936,7 +936,7 @@
         <v>0.02218246391937922</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.07462430293740518</v>
+        <v>0.07462430293740539</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.04840807933104316</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.06298572984204814</v>
+        <v>-0.05989283452804158</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.01236284911905859</v>
+        <v>-0.006275223458433427</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.0181701792077274</v>
+        <v>-0.01777340464657662</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1170813288034443</v>
+        <v>0.1205479264088301</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1729507835579885</v>
+        <v>0.1735422012897172</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1136593447914509</v>
+        <v>0.1102654664490816</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.779849192448054</v>
+        <v>-7.133391849009699</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.316023578604822</v>
+        <v>-2.968941386468569</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.504560066003094</v>
+        <v>-3.073795713954555</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.234843002448479</v>
+        <v>4.913642728627588</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.200642065954657</v>
+        <v>6.329973547097557</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.807033665104282</v>
+        <v>4.858333563697789</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1430357397919139</v>
+        <v>-0.1490940103479838</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0552442832584618</v>
+        <v>-0.05029151271220218</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.04649326446709845</v>
+        <v>-0.05753872017350429</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1248130673173108</v>
+        <v>0.1166316913320067</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1171027959111597</v>
+        <v>0.1194971251976383</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.09958315831242315</v>
+        <v>0.1010456769324844</v>
       </c>
     </row>
     <row r="34">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>-4.1121773100609</v>
+        <v>-4.112177310060897</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-11.4456268299811</v>
+        <v>-11.44562682998112</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-10.18172562017847</v>
+        <v>-10.18172562017846</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-12.23596662442685</v>
+        <v>-13.91852270782371</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-15.73474184889459</v>
+        <v>-16.13763189911504</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-14.56557173614239</v>
+        <v>-14.41676946360199</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.885559549349966</v>
+        <v>4.976020927704537</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-6.933931113551157</v>
+        <v>-6.598058390950337</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-5.868459597544264</v>
+        <v>-5.870341089753298</v>
       </c>
     </row>
     <row r="37">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>-0.1732956531794119</v>
+        <v>-0.1732956531794118</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.194594657930675</v>
+        <v>-0.1945946579306752</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.1978611329193278</v>
+        <v>-0.1978611329193277</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4705176447207165</v>
+        <v>-0.5184365935308037</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2615154513328919</v>
+        <v>-0.2620233392869173</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2741205404661988</v>
+        <v>-0.2687966150234921</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2912219868563947</v>
+        <v>0.2434294130858506</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.1200340324934365</v>
+        <v>-0.1162195082312716</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1190473346937647</v>
+        <v>-0.1161498002710579</v>
       </c>
     </row>
     <row r="40">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>1.602521995988587</v>
+        <v>1.602521995988576</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>-1.284177281243404</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.085653781000264</v>
+        <v>-0.9172925373886534</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.643180484431977</v>
+        <v>-3.498164572615371</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.549666158409531</v>
+        <v>-1.603169278169515</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.91016218538961</v>
+        <v>4.177956284313531</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.070249284450837</v>
+        <v>0.8658685430557946</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.869613655857004</v>
+        <v>1.782598911179074</v>
       </c>
     </row>
     <row r="43">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>0.03442377650023921</v>
+        <v>0.03442377650023897</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>-0.02245617514520776</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.02284509988241207</v>
+        <v>-0.018962532473391</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.0621021845667641</v>
+        <v>-0.06059658286886851</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.02893801943397477</v>
+        <v>-0.03035921561239906</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.08544858667755195</v>
+        <v>0.09166517679671377</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.01910711875521997</v>
+        <v>0.01533111800048125</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.03658889132219625</v>
+        <v>0.034689725409816</v>
       </c>
     </row>
     <row r="46">
